--- a/Minecraft/Projets/M-Cube/Classeur.xlsx
+++ b/Minecraft/Projets/M-Cube/Classeur.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\M-Cube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\Développement\Minecraft\Projets\M-Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D254E7B-A081-4AE0-9019-59F9C3D3B63E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1AFD084A-FD8D-452A-9967-4E98D4947E6A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{579F986E-0983-4FA8-B265-71847D723459}"/>
   </bookViews>
@@ -25,19 +25,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Projet</t>
   </si>
   <si>
     <t>Développement</t>
+  </si>
+  <si>
+    <t>homes</t>
+  </si>
+  <si>
+    <t>permissions</t>
+  </si>
+  <si>
+    <t>récup spawner</t>
+  </si>
+  <si>
+    <t>xp banques</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>/ban</t>
+  </si>
+  <si>
+    <t>/tempban</t>
+  </si>
+  <si>
+    <t>/mute</t>
+  </si>
+  <si>
+    <t>/tempmute</t>
+  </si>
+  <si>
+    <t>anti cheat</t>
+  </si>
+  <si>
+    <t>anti xray</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>other ranks</t>
+  </si>
+  <si>
+    <t>gifts</t>
+  </si>
+  <si>
+    <t>last connection</t>
+  </si>
+  <si>
+    <t>perte points selon LastCon</t>
+  </si>
+  <si>
+    <t>temps de jeu</t>
+  </si>
+  <si>
+    <t>/tpa</t>
+  </si>
+  <si>
+    <t>/tphere</t>
+  </si>
+  <si>
+    <t>/tpyes</t>
+  </si>
+  <si>
+    <t>Cos +</t>
+  </si>
+  <si>
+    <t>palliers</t>
+  </si>
+  <si>
+    <t>paliers légendaires</t>
+  </si>
+  <si>
+    <t>ranked menu "back"</t>
+  </si>
+  <si>
+    <t>?cos</t>
+  </si>
+  <si>
+    <t>?items</t>
+  </si>
+  <si>
+    <t>?coffres</t>
+  </si>
+  <si>
+    <t>?shop</t>
+  </si>
+  <si>
+    <t>/pay</t>
+  </si>
+  <si>
+    <t>/rank</t>
+  </si>
+  <si>
+    <t>/otherrank</t>
+  </si>
+  <si>
+    <t>/credits</t>
+  </si>
+  <si>
+    <t>/crystals</t>
+  </si>
+  <si>
+    <t>/legendarysteps</t>
+  </si>
+  <si>
+    <t>/staff</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>grade YT</t>
+  </si>
+  <si>
+    <t>grade stream</t>
+  </si>
+  <si>
+    <t>grade part</t>
+  </si>
+  <si>
+    <t>motd</t>
+  </si>
+  <si>
+    <t>maintenance motd</t>
+  </si>
+  <si>
+    <t>/maintenance</t>
+  </si>
+  <si>
+    <t>/playercount</t>
+  </si>
+  <si>
+    <t>/history</t>
+  </si>
+  <si>
+    <t>boosters</t>
+  </si>
+  <si>
+    <t>/gift</t>
+  </si>
+  <si>
+    <t>couleur +</t>
+  </si>
+  <si>
+    <t>gift boosters</t>
+  </si>
+  <si>
+    <t>gift +</t>
+  </si>
+  <si>
+    <t>gift grade yt</t>
+  </si>
+  <si>
+    <t>gift grade stream</t>
+  </si>
+  <si>
+    <t>gift grade part</t>
+  </si>
+  <si>
+    <t>menu princi nb de gifts</t>
+  </si>
+  <si>
+    <t>gifts chests</t>
+  </si>
+  <si>
+    <t>menu princi boosters</t>
+  </si>
+  <si>
+    <t>?arène</t>
+  </si>
+  <si>
+    <t>cos menu principal</t>
+  </si>
+  <si>
+    <t>cos menu +</t>
+  </si>
+  <si>
+    <t>/playertime</t>
+  </si>
+  <si>
+    <t>/testafk</t>
+  </si>
+  <si>
+    <t>cos count</t>
+  </si>
+  <si>
+    <t>confirm menu</t>
+  </si>
+  <si>
+    <t>saison 2</t>
+  </si>
+  <si>
+    <t>confirm plus</t>
+  </si>
+  <si>
+    <t>confirm placement</t>
+  </si>
+  <si>
+    <t>confirm maintenance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,13 +251,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,9 +309,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,15 +633,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4DA1EE-61BA-4F37-8740-4E2A5C2365FC}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,6 +653,445 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="7"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="7"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/Minecraft/Projets/M-Cube/Classeur.xlsx
+++ b/Minecraft/Projets/M-Cube/Classeur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\Développement\Minecraft\Projets\M-Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1AFD084A-FD8D-452A-9967-4E98D4947E6A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06588A28-ABA9-464F-A549-726F4D629C3E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{579F986E-0983-4FA8-B265-71847D723459}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>Projet</t>
   </si>
@@ -229,6 +229,36 @@
   </si>
   <si>
     <t>confirm maintenance</t>
+  </si>
+  <si>
+    <t>cos + dont have</t>
+  </si>
+  <si>
+    <t>/pc permission</t>
+  </si>
+  <si>
+    <t>maintenance time</t>
+  </si>
+  <si>
+    <t>/season [start/end/pause]</t>
+  </si>
+  <si>
+    <t>/whitelist</t>
+  </si>
+  <si>
+    <t>/stop confirmation</t>
+  </si>
+  <si>
+    <t>/reload confirmation</t>
+  </si>
+  <si>
+    <t>maintenance message</t>
+  </si>
+  <si>
+    <t>/whitelist confirmation</t>
+  </si>
+  <si>
+    <t>chat infos</t>
   </si>
 </sst>
 </file>
@@ -259,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,12 +320,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -309,16 +333,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4DA1EE-61BA-4F37-8740-4E2A5C2365FC}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +800,7 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -873,19 +896,19 @@
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -922,154 +945,154 @@
         <v>46</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="7"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="7"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="7"/>
+      <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="7"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="7"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="7"/>
+      <c r="C52" s="6"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>40</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="7"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>49</v>
       </c>
       <c r="B54" s="5"/>
-      <c r="C54" s="7"/>
+      <c r="C54" s="6"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>50</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="7"/>
+      <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>51</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="7"/>
+      <c r="C56" s="6"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="7"/>
+      <c r="C57" s="6"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="7"/>
+      <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>54</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="7"/>
+      <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="5"/>
-      <c r="C60" s="7"/>
+      <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="7"/>
+      <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="7"/>
+      <c r="C62" s="6"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="7"/>
+      <c r="C63" s="6"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="7"/>
+      <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="7"/>
+      <c r="C66" s="6"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -1087,10 +1110,67 @@
       <c r="A70" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="8"/>
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="7"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="7"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Minecraft/Projets/M-Cube/Classeur.xlsx
+++ b/Minecraft/Projets/M-Cube/Classeur.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\Développement\Minecraft\Projets\M-Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06588A28-ABA9-464F-A549-726F4D629C3E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7295BC84-0B57-4CC1-A49F-50186C7AC0AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{579F986E-0983-4FA8-B265-71847D723459}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>Projet</t>
   </si>
@@ -240,9 +240,6 @@
     <t>maintenance time</t>
   </si>
   <si>
-    <t>/season [start/end/pause]</t>
-  </si>
-  <si>
     <t>/whitelist</t>
   </si>
   <si>
@@ -259,6 +256,15 @@
   </si>
   <si>
     <t>chat infos</t>
+  </si>
+  <si>
+    <t>gift table register</t>
+  </si>
+  <si>
+    <t>versions manager</t>
+  </si>
+  <si>
+    <t>auto completion</t>
   </si>
 </sst>
 </file>
@@ -289,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -333,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -342,6 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4DA1EE-61BA-4F37-8740-4E2A5C2365FC}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1117,7 @@
       <c r="A69" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="4"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -1132,45 +1145,60 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="B74" s="8"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" s="5"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Minecraft/Projets/M-Cube/Classeur.xlsx
+++ b/Minecraft/Projets/M-Cube/Classeur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\Développement\Minecraft\Projets\M-Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7295BC84-0B57-4CC1-A49F-50186C7AC0AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E35F63F-3804-4C87-A199-48580F0683F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{579F986E-0983-4FA8-B265-71847D723459}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>Projet</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>auto completion</t>
+  </si>
+  <si>
+    <t>/gift confirmation</t>
+  </si>
+  <si>
+    <t>/gift ALL</t>
   </si>
 </sst>
 </file>
@@ -295,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,12 +332,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -345,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -354,7 +354,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4DA1EE-61BA-4F37-8740-4E2A5C2365FC}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1146,7 @@
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="8"/>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -1160,6 +1159,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="2"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -1198,7 +1198,16 @@
       <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="6"/>
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Minecraft/Projets/M-Cube/Classeur.xlsx
+++ b/Minecraft/Projets/M-Cube/Classeur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\Développement\Minecraft\Projets\M-Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E35F63F-3804-4C87-A199-48580F0683F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{352A464C-C16D-4F2A-ABA5-26C0AC16CCC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{579F986E-0983-4FA8-B265-71847D723459}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>Projet</t>
   </si>
@@ -111,9 +111,6 @@
     <t>?items</t>
   </si>
   <si>
-    <t>?coffres</t>
-  </si>
-  <si>
     <t>?shop</t>
   </si>
   <si>
@@ -240,15 +237,9 @@
     <t>maintenance time</t>
   </si>
   <si>
-    <t>/whitelist</t>
-  </si>
-  <si>
     <t>/stop confirmation</t>
   </si>
   <si>
-    <t>/reload confirmation</t>
-  </si>
-  <si>
     <t>maintenance message</t>
   </si>
   <si>
@@ -267,10 +258,25 @@
     <t>auto completion</t>
   </si>
   <si>
-    <t>/gift confirmation</t>
-  </si>
-  <si>
-    <t>/gift ALL</t>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>/lastconnection</t>
+  </si>
+  <si>
+    <t>chest system</t>
+  </si>
+  <si>
+    <t>/chest</t>
+  </si>
+  <si>
+    <t>chest menu</t>
+  </si>
+  <si>
+    <t>chest main menu count</t>
+  </si>
+  <si>
+    <t>chest open</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +338,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -345,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -354,6 +372,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4DA1EE-61BA-4F37-8740-4E2A5C2365FC}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +718,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -764,7 +784,7 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -845,369 +865,384 @@
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="6"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B56" s="4"/>
       <c r="C56" s="6"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B57" s="4"/>
       <c r="C57" s="6"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B58" s="4"/>
       <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="6"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="B63" s="4"/>
       <c r="C63" s="6"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="6"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="4"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="4"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="7"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" s="7"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="B75" s="4"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="6"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>73</v>
+      <c r="A77" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="B78" s="4"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B79" s="5"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B80" s="5"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="2"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Minecraft/Projets/M-Cube/Classeur.xlsx
+++ b/Minecraft/Projets/M-Cube/Classeur.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\Développement\Minecraft\Projets\M-Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{352A464C-C16D-4F2A-ABA5-26C0AC16CCC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93C3A3E-755C-4CEA-A196-E9243F426DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{579F986E-0983-4FA8-B265-71847D723459}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="87">
   <si>
     <t>Projet</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>chest open</t>
+  </si>
+  <si>
+    <t>dragon egg regen</t>
+  </si>
+  <si>
+    <t>gift chest</t>
+  </si>
+  <si>
+    <t>/stream</t>
   </si>
 </sst>
 </file>
@@ -307,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,18 +347,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -363,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -372,8 +369,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4DA1EE-61BA-4F37-8740-4E2A5C2365FC}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +713,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1218,31 +1213,52 @@
       <c r="A83" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="4"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="8"/>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="2"/>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="2"/>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Minecraft/Projets/M-Cube/Classeur.xlsx
+++ b/Minecraft/Projets/M-Cube/Classeur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\Développement\Minecraft\Projets\M-Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93C3A3E-755C-4CEA-A196-E9243F426DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C20A1B-B0F6-412F-A4EF-2ADE9D161689}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{579F986E-0983-4FA8-B265-71847D723459}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{579F986E-0983-4FA8-B265-71847D723459}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="90">
   <si>
     <t>Projet</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>/stream</t>
+  </si>
+  <si>
+    <t>afk kick</t>
+  </si>
+  <si>
+    <t>hologrammes</t>
+  </si>
+  <si>
+    <t>homes auto completion</t>
   </si>
 </sst>
 </file>
@@ -683,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4DA1EE-61BA-4F37-8740-4E2A5C2365FC}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +716,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -950,7 +959,7 @@
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="5"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1066,7 +1075,7 @@
       <c r="A60" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="5"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1094,7 +1103,7 @@
       <c r="A64" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1246,7 +1255,10 @@
       <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -1259,6 +1271,18 @@
         <v>85</v>
       </c>
       <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Minecraft/Projets/M-Cube/Classeur.xlsx
+++ b/Minecraft/Projets/M-Cube/Classeur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\Développement\Minecraft\Projets\M-Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C20A1B-B0F6-412F-A4EF-2ADE9D161689}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABA2C7D-08B0-4E4B-BD85-AC9063AC0972}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{579F986E-0983-4FA8-B265-71847D723459}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{579F986E-0983-4FA8-B265-71847D723459}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>Projet</t>
   </si>
@@ -295,6 +295,24 @@
   </si>
   <si>
     <t>homes auto completion</t>
+  </si>
+  <si>
+    <t>?special events</t>
+  </si>
+  <si>
+    <t>&lt;--</t>
+  </si>
+  <si>
+    <t>têtes</t>
+  </si>
+  <si>
+    <t>couleur sur les panneaux</t>
+  </si>
+  <si>
+    <t>MESS SPAWNER</t>
+  </si>
+  <si>
+    <t>MESS XP BANK</t>
   </si>
 </sst>
 </file>
@@ -692,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4DA1EE-61BA-4F37-8740-4E2A5C2365FC}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +722,7 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,91 +730,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -869,7 +890,10 @@
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1206,83 +1230,101 @@
       </c>
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>75</v>
       </c>
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>76</v>
       </c>
       <c r="B82" s="5"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>84</v>
       </c>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>85</v>
       </c>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
       <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Minecraft/Projets/M-Cube/Classeur.xlsx
+++ b/Minecraft/Projets/M-Cube/Classeur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\Desktop\Développement\Minecraft\Projets\M-Cube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Minecraft\Projets\M-Cube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABA2C7D-08B0-4E4B-BD85-AC9063AC0972}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49959D21-4336-406F-A45F-FAEB3AD32FFA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{579F986E-0983-4FA8-B265-71847D723459}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{579F986E-0983-4FA8-B265-71847D723459}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
   <si>
     <t>Projet</t>
   </si>
@@ -312,7 +312,28 @@
     <t>MESS SPAWNER</t>
   </si>
   <si>
-    <t>MESS XP BANK</t>
+    <t>saison 2 end</t>
+  </si>
+  <si>
+    <t>saison 3 menu</t>
+  </si>
+  <si>
+    <t>Ouverture du serveur</t>
+  </si>
+  <si>
+    <t>Menu cosmétique</t>
+  </si>
+  <si>
+    <t>afk menus</t>
+  </si>
+  <si>
+    <t>motd serveur plein</t>
+  </si>
+  <si>
+    <t>accès quand serv plein</t>
+  </si>
+  <si>
+    <t>/inv</t>
   </si>
 </sst>
 </file>
@@ -387,14 +408,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -710,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4DA1EE-61BA-4F37-8740-4E2A5C2365FC}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,13 +775,13 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -919,312 +939,289 @@
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>39</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
       <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>51</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
       <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="7"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="7"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>69</v>
       </c>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="4"/>
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>71</v>
       </c>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>72</v>
       </c>
       <c r="B79" s="5"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -1286,9 +1283,6 @@
         <v>87</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="H89" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -1324,7 +1318,55 @@
       <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="2"/>
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
